--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>c</t>
   </si>
@@ -34,6 +34,12 @@
     <t>数值</t>
   </si>
   <si>
+    <t>图标资源</t>
+  </si>
+  <si>
+    <t>合图地址</t>
+  </si>
+  <si>
     <t>#增益类型1，增益。2减益</t>
   </si>
   <si>
@@ -52,6 +58,12 @@
     <t>value</t>
   </si>
   <si>
+    <t>ImageStr</t>
+  </si>
+  <si>
+    <t>SpriteAtlas</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,6 +74,12 @@
   </si>
   <si>
     <t>最大伤害降低</t>
+  </si>
+  <si>
+    <t>shuxingicon01</t>
+  </si>
+  <si>
+    <t>Assets/Res/UI/CommonUIAtlas.spriteatlas</t>
   </si>
   <si>
     <t>根性</t>
@@ -397,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,124 +736,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,23 +865,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,11 +896,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1226,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:W32"/>
+  <dimension ref="A2:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F32"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1237,8 +1268,10 @@
     <col min="1" max="1" width="28.6346153846154" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7307692307692" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.6634615384615" style="2" customWidth="1"/>
-    <col min="7" max="9" width="12.6346153846154" style="2" customWidth="1"/>
+    <col min="6" max="6" width="70.0288461538462" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6346153846154" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.2403846153846" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.2211538461538" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.7307692307692" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.3653846153846" style="2" customWidth="1"/>
     <col min="12" max="13" width="13.0865384615385" style="2" customWidth="1"/>
@@ -1278,8 +1311,12 @@
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1297,25 +1334,29 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1333,22 +1374,26 @@
     </row>
     <row r="5" spans="3:23">
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1364,21 +1409,27 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" ht="14.4" spans="3:7">
+    <row r="6" ht="14.4" spans="3:9">
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9">
         <v>500000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="14.4" spans="3:7">
@@ -1386,15 +1437,15 @@
         <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9">
         <v>600000</v>
       </c>
     </row>
@@ -1403,45 +1454,49 @@
         <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="14.4" spans="3:7">
       <c r="C9" s="4">
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="14.4" spans="3:7">
       <c r="C10" s="4">
         <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9">
         <v>300000</v>
       </c>
     </row>
@@ -1450,15 +1505,15 @@
         <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="4">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9">
         <v>300000</v>
       </c>
     </row>
@@ -1467,15 +1522,15 @@
         <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="4">
+        <v>33</v>
+      </c>
+      <c r="G12" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1484,15 +1539,15 @@
         <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="4">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9">
         <v>300000</v>
       </c>
     </row>
@@ -1501,30 +1556,32 @@
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="14.4" spans="3:7">
       <c r="C15" s="4">
         <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="4">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="4">
+        <v>39</v>
+      </c>
+      <c r="G15" s="9">
         <v>300000</v>
       </c>
     </row>
@@ -1533,159 +1590,277 @@
         <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="14.4" spans="4:7">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="3:7">
+      <c r="C17" s="4">
+        <v>112</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="2">
+        <v>43</v>
+      </c>
+      <c r="G17" s="9">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="4:6">
+    <row r="18" ht="14.4" spans="3:7">
+      <c r="C18" s="4">
+        <v>113</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" ht="14.4" spans="4:6">
+        <v>45</v>
+      </c>
+      <c r="G18" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" spans="3:7">
+      <c r="C19" s="4">
+        <v>114</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="14.4" spans="4:6">
+        <v>47</v>
+      </c>
+      <c r="G19" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="20" ht="14.4" spans="3:7">
+      <c r="C20" s="4">
+        <v>115</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" ht="14.4" spans="4:6">
+        <v>49</v>
+      </c>
+      <c r="G20" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="21" ht="14.4" spans="3:7">
+      <c r="C21" s="4">
+        <v>116</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="14.4" spans="4:6">
+        <v>51</v>
+      </c>
+      <c r="G21" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" spans="3:7">
+      <c r="C22" s="4">
+        <v>117</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" ht="14.4" spans="4:6">
+        <v>53</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" spans="3:7">
+      <c r="C23" s="4">
+        <v>118</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" ht="14.4" spans="4:6">
+        <v>55</v>
+      </c>
+      <c r="G23" s="9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" spans="3:7">
+      <c r="C24" s="4">
+        <v>119</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" ht="14.4" spans="4:6">
+        <v>57</v>
+      </c>
+      <c r="G24" s="9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="3:7">
+      <c r="C25" s="4">
+        <v>120</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="14.4" spans="4:6">
+        <v>59</v>
+      </c>
+      <c r="G25" s="9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" ht="14.4" spans="3:7">
+      <c r="C26" s="4">
+        <v>121</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" ht="14.4" spans="4:6">
+        <v>61</v>
+      </c>
+      <c r="G26" s="9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" ht="14.4" spans="3:7">
+      <c r="C27" s="4">
+        <v>122</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" ht="14.4" spans="4:6">
+        <v>63</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.4" spans="3:7">
+      <c r="C28" s="4">
+        <v>123</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" ht="14.4" spans="4:6">
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" ht="14.4" spans="4:6">
-      <c r="D30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" ht="58" spans="4:6">
-      <c r="D31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" ht="14.4" spans="4:6">
-      <c r="D32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="6" t="s">
         <v>65</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="29" ht="14.4" spans="3:7">
+      <c r="C29" s="4">
+        <v>124</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="4">
+        <v>125</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="10">
+        <v>200000</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" ht="14.4" spans="3:7">
+      <c r="C31" s="4">
+        <v>126</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>c</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>生命值若大于60%，则下次遭受的伤害将不会使该英雄死亡。</t>
+  </si>
+  <si>
+    <t>shuxingicon02</t>
   </si>
   <si>
     <t>免疫</t>
@@ -237,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -292,6 +295,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -300,26 +395,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,92 +417,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,61 +451,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,19 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,91 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,15 +638,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,26 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,145 +706,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,9 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1260,7 +1254,7 @@
   <dimension ref="A2:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1432,7 +1426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="3:7">
+    <row r="7" ht="14.4" spans="3:9">
       <c r="C7" s="4">
         <v>102</v>
       </c>
@@ -1447,6 +1441,12 @@
       </c>
       <c r="G7" s="9">
         <v>600000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="14.4" spans="3:7">
@@ -1454,13 +1454,13 @@
         <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="9">
         <v>300000</v>
@@ -1505,13 +1505,13 @@
         <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="9">
         <v>300000</v>
@@ -1522,13 +1522,13 @@
         <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -1539,13 +1539,13 @@
         <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9">
         <v>300000</v>
@@ -1556,13 +1556,13 @@
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="9">
         <v>300000</v>
@@ -1590,13 +1590,13 @@
         <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>112</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="9">
         <v>500000</v>
@@ -1624,13 +1624,13 @@
         <v>113</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9">
         <v>500000</v>
@@ -1641,13 +1641,13 @@
         <v>114</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="9">
         <v>300000</v>
@@ -1658,13 +1658,13 @@
         <v>115</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="9">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="9">
         <v>300000</v>
@@ -1675,13 +1675,13 @@
         <v>116</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="9">
         <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="9">
         <v>100000</v>
@@ -1692,13 +1692,13 @@
         <v>117</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>118</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="9">
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" s="9">
         <v>30000</v>
@@ -1726,13 +1726,13 @@
         <v>119</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="9">
         <v>50000</v>
@@ -1743,13 +1743,13 @@
         <v>120</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="9">
         <v>30000</v>
@@ -1760,13 +1760,13 @@
         <v>121</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="9">
         <v>2</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26" s="9">
         <v>30000</v>
@@ -1777,13 +1777,13 @@
         <v>122</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="9">
         <v>2</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -1794,13 +1794,13 @@
         <v>123</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="9">
         <v>2</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="9">
         <v>2000000</v>
@@ -1811,13 +1811,13 @@
         <v>124</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="9">
         <v>2</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -1828,15 +1828,15 @@
         <v>125</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="10">
+        <v>69</v>
+      </c>
+      <c r="E30" s="9">
         <v>2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="10">
+        <v>70</v>
+      </c>
+      <c r="G30" s="9">
         <v>200000</v>
       </c>
       <c r="H30" s="1"/>
@@ -1851,13 +1851,13 @@
         <v>126</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="9">
         <v>2</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>c</t>
   </si>
@@ -40,6 +40,12 @@
     <t>合图地址</t>
   </si>
   <si>
+    <t>结束时激活的buff</t>
+  </si>
+  <si>
+    <t>叠加数量</t>
+  </si>
+  <si>
     <t>#增益类型1，增益。2减益</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
     <t>SpriteAtlas</t>
   </si>
   <si>
+    <t>RoundOverActiveBuff</t>
+  </si>
+  <si>
+    <t>MaxOverlabCount</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -191,6 +203,9 @@
   </si>
   <si>
     <t>每回合扣除当前生命值5%的血量。（可叠加，最多3次）</t>
+  </si>
+  <si>
+    <t>Ï</t>
   </si>
   <si>
     <t>烧伤</t>
@@ -240,8 +255,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -288,6 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -295,10 +318,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +357,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -317,106 +432,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -451,175 +466,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,60 +653,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +683,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -730,145 +706,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,19 +903,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1251,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:W31"/>
+  <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H7" sqref="H7:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1262,34 +1286,34 @@
     <col min="1" max="1" width="28.6346153846154" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7307692307692" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="70.0288461538462" style="2" customWidth="1"/>
+    <col min="6" max="6" width="77.2403846153846" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6346153846154" style="2" customWidth="1"/>
     <col min="8" max="8" width="27.2403846153846" style="2" customWidth="1"/>
     <col min="9" max="9" width="40.2211538461538" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.7307692307692" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.3653846153846" style="2" customWidth="1"/>
-    <col min="12" max="13" width="13.0865384615385" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5384615384615" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="15.0865384615385" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" customWidth="1"/>
-    <col min="18" max="18" width="35.1826923076923" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6346153846154" style="1" customWidth="1"/>
-    <col min="20" max="20" width="34.7307692307692" style="1" customWidth="1"/>
-    <col min="21" max="21" width="33.0865384615385" style="1" customWidth="1"/>
-    <col min="22" max="22" width="26.8173076923077" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="13.0865384615385" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.5384615384615" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="15.0865384615385" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.1826923076923" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6346153846154" style="1" customWidth="1"/>
+    <col min="19" max="19" width="34.7307692307692" style="1" customWidth="1"/>
+    <col min="20" max="20" width="33.0865384615385" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.8173076923077" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="19:21">
-      <c r="S2" s="1" t="s">
+    <row r="2" spans="18:20">
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:23">
+    <row r="3" spans="3:22">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1311,8 +1335,12 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1324,35 +1352,38 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1364,32 +1395,35 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="3:23">
+    </row>
+    <row r="5" spans="3:22">
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1401,467 +1435,696 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" ht="14.4" spans="3:9">
+    </row>
+    <row r="6" ht="14.4" spans="3:11">
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="11">
         <v>500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" spans="3:9">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="3:11">
       <c r="C7" s="4">
         <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="9">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11">
         <v>600000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" spans="3:7">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="3:11">
       <c r="C8" s="4">
         <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="14.4" spans="3:7">
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="3:11">
       <c r="C9" s="4">
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="9">
+        <v>32</v>
+      </c>
+      <c r="G9" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="14.4" spans="3:7">
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="3:11">
       <c r="C10" s="4">
         <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9">
+        <v>34</v>
+      </c>
+      <c r="G10" s="11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="11" ht="14.4" spans="3:7">
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" spans="3:11">
       <c r="C11" s="4">
         <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="9">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="12" ht="14.4" spans="3:7">
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="3:11">
       <c r="C12" s="4">
         <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" spans="3:7">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" spans="3:11">
       <c r="C13" s="4">
         <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="8">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="9">
+        <v>40</v>
+      </c>
+      <c r="G13" s="11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="14" ht="14.4" spans="3:7">
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" spans="3:11">
       <c r="C14" s="4">
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="9">
+        <v>42</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="14.4" spans="3:7">
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.4" spans="3:11">
       <c r="C15" s="4">
         <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="8">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="9">
+        <v>44</v>
+      </c>
+      <c r="G15" s="11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="16" ht="14.4" spans="3:7">
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.4" spans="3:11">
       <c r="C16" s="4">
         <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="8">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="9">
+        <v>46</v>
+      </c>
+      <c r="G16" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="14.4" spans="3:7">
-      <c r="C17" s="4">
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="3:11">
+      <c r="C17" s="6">
         <v>112</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="11">
         <v>500000</v>
       </c>
-    </row>
-    <row r="18" ht="14.4" spans="3:7">
-      <c r="C18" s="4">
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" spans="3:11">
+      <c r="C18" s="6">
         <v>113</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="11">
         <v>2</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="11">
         <v>500000</v>
       </c>
-    </row>
-    <row r="19" ht="14.4" spans="3:7">
-      <c r="C19" s="4">
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" spans="3:11">
+      <c r="C19" s="6">
         <v>114</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="11">
         <v>2</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="20" ht="14.4" spans="3:7">
-      <c r="C20" s="4">
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.4" spans="3:11">
+      <c r="C20" s="6">
         <v>115</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="11">
         <v>300000</v>
       </c>
-    </row>
-    <row r="21" ht="14.4" spans="3:7">
-      <c r="C21" s="4">
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="14.4" spans="3:11">
+      <c r="C21" s="6">
         <v>116</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="11">
         <v>100000</v>
       </c>
-    </row>
-    <row r="22" ht="14.4" spans="3:7">
-      <c r="C22" s="4">
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="9">
+        <v>124</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" spans="3:11">
+      <c r="C22" s="6">
         <v>117</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="11">
         <v>2</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" ht="14.4" spans="3:7">
-      <c r="C23" s="4">
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="3:11">
+      <c r="C23" s="6">
         <v>118</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="11">
         <v>2</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="11">
         <v>30000</v>
       </c>
-    </row>
-    <row r="24" ht="14.4" spans="3:7">
-      <c r="C24" s="4">
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="12">
+        <v>125</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" spans="3:12">
+      <c r="C24" s="6">
         <v>119</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="11">
         <v>2</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="11">
         <v>50000</v>
       </c>
-    </row>
-    <row r="25" ht="14.4" spans="3:7">
-      <c r="C25" s="4">
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="3:11">
+      <c r="C25" s="6">
         <v>120</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="11">
         <v>2</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="11">
         <v>30000</v>
       </c>
-    </row>
-    <row r="26" ht="14.4" spans="3:7">
-      <c r="C26" s="4">
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="14.4" spans="3:11">
+      <c r="C26" s="6">
         <v>121</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="11">
         <v>30000</v>
       </c>
-    </row>
-    <row r="27" ht="14.4" spans="3:7">
-      <c r="C27" s="4">
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="14.4" spans="3:11">
+      <c r="C27" s="6">
         <v>122</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="14.4" spans="3:7">
-      <c r="C28" s="4">
+      <c r="H27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.4" spans="3:11">
+      <c r="C28" s="6">
         <v>123</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="11">
         <v>2</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="11">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="29" ht="14.4" spans="3:7">
-      <c r="C29" s="4">
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="14.4" spans="3:11">
+      <c r="C29" s="6">
         <v>124</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="D29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="11">
         <v>2</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="4">
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="14.4" spans="3:12">
+      <c r="C30" s="6">
         <v>125</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="D30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="11">
         <v>200000</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" ht="14.4" spans="3:7">
-      <c r="C31" s="4">
+    </row>
+    <row r="31" ht="14.4" spans="3:11">
+      <c r="C31" s="6">
         <v>126</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11">
         <v>2</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="11">
         <v>0</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>c</t>
   </si>
@@ -34,6 +34,9 @@
     <t>数值</t>
   </si>
   <si>
+    <t>是否禁锢</t>
+  </si>
+  <si>
     <t>图标资源</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>叠加数量</t>
   </si>
   <si>
+    <t>特效地址</t>
+  </si>
+  <si>
     <t>#增益类型1，增益。2减益</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>IsCanAttack</t>
+  </si>
+  <si>
     <t>ImageStr</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>MaxOverlabCount</t>
   </si>
   <si>
+    <t>EffectPath</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
   </si>
   <si>
     <t>感电后目标所受伤害增加10%（不可叠加）。若持续【感电】3回合，则第三回合造成【晕眩】，效果持续1回合。（恢复后重置）</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Effect/SKillEffect/simayi_jiutianshenlei_shouji.prefab</t>
   </si>
   <si>
     <t>眩目</t>
@@ -255,9 +270,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -290,14 +305,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,8 +388,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,104 +441,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -460,13 +475,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,157 +631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +668,69 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,218 +760,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -926,6 +941,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1275,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A2:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1288,32 +1306,32 @@
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
     <col min="6" max="6" width="77.2403846153846" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.2403846153846" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.2211538461538" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.7307692307692" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.3653846153846" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.0865384615385" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.5384615384615" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="15.0865384615385" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35.1826923076923" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6346153846154" style="1" customWidth="1"/>
-    <col min="19" max="19" width="34.7307692307692" style="1" customWidth="1"/>
-    <col min="20" max="20" width="33.0865384615385" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.8173076923077" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="27.2403846153846" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.2211538461538" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.7307692307692" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.3653846153846" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.0865384615385" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5384615384615" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="15.0865384615385" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="18" width="35.1826923076923" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6346153846154" style="1" customWidth="1"/>
+    <col min="20" max="20" width="34.7307692307692" style="1" customWidth="1"/>
+    <col min="21" max="21" width="33.0865384615385" style="1" customWidth="1"/>
+    <col min="22" max="22" width="26.8173076923077" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="18:20">
-      <c r="R2" s="1" t="s">
+    <row r="2" spans="19:21">
+      <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:22">
+    <row r="3" spans="3:23">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1341,8 +1359,12 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1352,40 +1374,45 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1395,37 +1422,42 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="3:22">
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="3:23">
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1435,691 +1467,769 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" ht="14.4" spans="3:11">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" ht="14.4" spans="3:12">
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" s="11">
         <v>500000</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
+      <c r="H6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" spans="3:11">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="3:12">
       <c r="C7" s="4">
         <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="11">
         <v>600000</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="3:12">
       <c r="C8" s="4">
         <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
+      <c r="H8" s="2">
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="3:12">
       <c r="C9" s="4">
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
+      <c r="H9" s="2">
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="3:12">
       <c r="C10" s="4">
         <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" s="11">
         <v>300000</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
+      <c r="H10" s="2">
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" spans="3:12">
       <c r="C11" s="4">
         <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" s="11">
         <v>300000</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
+      <c r="H11" s="2">
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="3:12">
       <c r="C12" s="4">
         <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
+      <c r="H12" s="2">
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" spans="3:12">
       <c r="C13" s="4">
         <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13" s="11">
         <v>300000</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
+      <c r="H13" s="2">
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" spans="3:12">
       <c r="C14" s="4">
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
+      <c r="H14" s="2">
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.4" spans="3:12">
       <c r="C15" s="4">
         <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11">
         <v>300000</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
+      <c r="H15" s="2">
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.4" spans="3:12">
       <c r="C16" s="4">
         <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
+      <c r="H16" s="2">
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="3:12">
       <c r="C17" s="6">
         <v>112</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="11">
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G17" s="11">
         <v>500000</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
+      <c r="H17" s="2">
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" spans="3:12">
       <c r="C18" s="6">
         <v>113</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E18" s="11">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11">
         <v>500000</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
+      <c r="H18" s="2">
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" spans="3:12">
       <c r="C19" s="6">
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G19" s="11">
         <v>300000</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
+      <c r="H19" s="2">
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.4" spans="3:12">
       <c r="C20" s="6">
         <v>115</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G20" s="11">
         <v>300000</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
+      <c r="H20" s="2">
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="3:13">
       <c r="C21" s="6">
         <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E21" s="11">
         <v>2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="11">
         <v>100000</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
+      <c r="H21" s="2">
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="9">
-        <v>124</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" spans="3:12">
       <c r="C22" s="6">
         <v>117</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E22" s="11">
         <v>2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
+      <c r="H22" s="2">
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="16.8" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="3:12">
       <c r="C23" s="6">
         <v>118</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G23" s="11">
         <v>30000</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>28</v>
+      <c r="H23" s="2">
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="12">
-        <v>125</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="14.4" spans="3:12">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.4" spans="3:13">
       <c r="C24" s="6">
         <v>119</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E24" s="11">
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G24" s="11">
         <v>50000</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
+      <c r="H24" s="2">
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="2">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2">
         <v>3</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="14.4" spans="3:11">
+      <c r="M24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="3:12">
       <c r="C25" s="6">
         <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E25" s="11">
         <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G25" s="11">
         <v>30000</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>28</v>
+      <c r="H25" s="2">
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="2">
+        <v>32</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="14.4" spans="3:11">
+    <row r="26" ht="14.4" spans="3:12">
       <c r="C26" s="6">
         <v>121</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G26" s="11">
         <v>30000</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>28</v>
+      <c r="H26" s="2">
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="14.4" spans="3:12">
       <c r="C27" s="6">
         <v>122</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G27" s="11">
         <v>0</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>28</v>
+      <c r="H27" s="2">
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.4" spans="3:12">
       <c r="C28" s="6">
         <v>123</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E28" s="11">
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G28" s="11">
         <v>2000000</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>28</v>
+      <c r="H28" s="2">
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="14.4" spans="3:12">
       <c r="C29" s="6">
         <v>124</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E29" s="11">
         <v>2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>28</v>
+      <c r="H29" s="2">
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="14.4" spans="3:12">
+        <v>32</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="14.4" spans="3:13">
       <c r="C30" s="6">
         <v>125</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E30" s="11">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11">
         <v>200000</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>28</v>
+      <c r="H30" s="2">
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" ht="14.4" spans="3:11">
+        <v>32</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" ht="14.4" spans="3:12">
       <c r="C31" s="6">
         <v>126</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E31" s="11">
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
+      <c r="H31" s="2">
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="2">
+        <v>32</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>c</t>
   </si>
@@ -52,6 +52,9 @@
     <t>特效地址</t>
   </si>
   <si>
+    <t>动画状态</t>
+  </si>
+  <si>
     <t>#增益类型1，增益。2减益</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>EffectPath</t>
   </si>
   <si>
+    <t>AnimationState</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -97,7 +103,7 @@
     <t>铁壁</t>
   </si>
   <si>
-    <t>最大伤害降低</t>
+    <t>最终伤害降低50%</t>
   </si>
   <si>
     <t>shuxingicon01</t>
@@ -220,9 +226,6 @@
     <t>每回合扣除当前生命值5%的血量。（可叠加，最多3次）</t>
   </si>
   <si>
-    <t>Ï</t>
-  </si>
-  <si>
     <t>烧伤</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>目标失去行动能力</t>
+  </si>
+  <si>
+    <t>Frozen</t>
   </si>
   <si>
     <t>冰冻</t>
@@ -270,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -318,11 +324,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,44 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -380,9 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,15 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +371,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +431,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -433,20 +446,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -481,175 +487,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,31 +682,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,17 +717,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +733,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,85 +769,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,65 +856,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -933,11 +939,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1293,45 +1302,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:W32"/>
+  <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="28.6346153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7307692307692" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.9038461538462" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5192307692308" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="77.2403846153846" style="2" customWidth="1"/>
+    <col min="6" max="6" width="65.7019230769231" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="8" max="9" width="27.2403846153846" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.2211538461538" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.52884615384615" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.76923076923077" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.3461538461538" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.7307692307692" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.3653846153846" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.0865384615385" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.5384615384615" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="15.0865384615385" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" customWidth="1"/>
-    <col min="18" max="18" width="35.1826923076923" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6346153846154" style="1" customWidth="1"/>
-    <col min="20" max="20" width="34.7307692307692" style="1" customWidth="1"/>
-    <col min="21" max="21" width="33.0865384615385" style="1" customWidth="1"/>
-    <col min="22" max="22" width="26.8173076923077" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="15.0865384615385" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.1826923076923" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6346153846154" style="1" customWidth="1"/>
+    <col min="19" max="19" width="34.7307692307692" style="1" customWidth="1"/>
+    <col min="20" max="20" width="33.0865384615385" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.8173076923077" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="19:21">
-      <c r="S2" s="1" t="s">
+    <row r="2" spans="18:20">
+      <c r="R2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:23">
+    <row r="3" spans="3:22">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1374,9 @@
       <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1374,46 +1385,47 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1422,43 +1434,44 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="3:23">
+    </row>
+    <row r="5" spans="3:22">
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1467,32 +1480,31 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
     </row>
     <row r="6" ht="14.4" spans="3:12">
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="11">
-        <v>500000</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -1503,25 +1515,25 @@
         <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11">
-        <v>600000</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -1532,25 +1544,25 @@
         <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -1561,25 +1573,25 @@
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -1590,25 +1602,25 @@
         <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="11">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -1619,25 +1631,25 @@
         <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>40</v>
+      <c r="F11" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="11">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -1648,25 +1660,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -1677,25 +1689,25 @@
         <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="11">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -1706,25 +1718,25 @@
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -1735,25 +1747,25 @@
         <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G15" s="11">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -1764,25 +1776,25 @@
         <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -1793,25 +1805,25 @@
         <v>112</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="11">
         <v>2</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" s="11">
-        <v>500000</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -1822,25 +1834,25 @@
         <v>113</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="11">
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" s="11">
-        <v>500000</v>
+        <v>10</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -1851,25 +1863,25 @@
         <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" s="11">
         <v>2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G19" s="11">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -1880,25 +1892,25 @@
         <v>115</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" s="11">
-        <v>300000</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -1909,32 +1921,34 @@
         <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11">
         <v>2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" s="11">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="K21" s="9">
+        <v>124</v>
+      </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>61</v>
+      <c r="M21" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="14.4" spans="3:12">
@@ -1942,25 +1956,25 @@
         <v>117</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E22" s="11">
         <v>2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G22" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -1971,61 +1985,58 @@
         <v>118</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G23" s="11">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="K23" s="13"/>
       <c r="L23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.4" spans="3:13">
+    <row r="24" ht="14.4" spans="3:12">
       <c r="C24" s="6">
         <v>119</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" s="11">
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G24" s="11">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L24" s="2">
         <v>3</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" ht="14.4" spans="3:12">
@@ -2033,25 +2044,25 @@
         <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="11">
         <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" s="11">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L25" s="2">
         <v>3</v>
@@ -2062,25 +2073,25 @@
         <v>121</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G26" s="11">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -2091,25 +2102,25 @@
         <v>122</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -2120,57 +2131,60 @@
         <v>123</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="11">
         <v>2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="11">
-        <v>2000000</v>
+        <v>10</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="3:12">
+    <row r="29" ht="14.4" spans="3:14">
       <c r="C29" s="6">
         <v>124</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" s="11">
         <v>2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="14.4" spans="3:13">
@@ -2178,25 +2192,25 @@
         <v>125</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" s="11">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G30" s="11">
-        <v>200000</v>
+        <v>10</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="2">
@@ -2209,25 +2223,25 @@
         <v>126</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E31" s="11">
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G31" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -55,7 +55,7 @@
     <t>动画状态</t>
   </si>
   <si>
-    <t>#增益类型1，增益。2减益</t>
+    <t>#增益类型1，增益。2减益3,血量护盾</t>
   </si>
   <si>
     <t>Id</t>
@@ -276,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -318,45 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,39 +332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +363,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +430,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -493,25 +493,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,139 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,22 +682,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,11 +726,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,166 +766,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,7 +1305,7 @@
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1313,7 +1313,7 @@
     <col min="1" max="1" width="43.9038461538462" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.5192307692308" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65.7019230769231" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.8173076923077" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.6346153846154" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.52884615384615" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.76923076923077" style="2" customWidth="1"/>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -276,8 +276,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -318,7 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,17 +332,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,6 +366,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,10 +394,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,38 +410,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,23 +430,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +475,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,25 +493,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,49 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,90 +662,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,8 +686,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -691,22 +699,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +720,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -741,180 +749,178 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -929,20 +935,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -951,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1312,7 @@
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1491,10 +1498,10 @@
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>50</v>
       </c>
       <c r="H6" s="2">
@@ -1510,7 +1517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="3:12">
+    <row r="7" ht="14.4" spans="2:12">
+      <c r="B7" s="6"/>
       <c r="C7" s="4">
         <v>102</v>
       </c>
@@ -1523,7 +1531,7 @@
       <c r="F7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>10</v>
       </c>
       <c r="H7" s="2">
@@ -1552,7 +1560,7 @@
       <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>10</v>
       </c>
       <c r="H8" s="2">
@@ -1581,7 +1589,7 @@
       <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>10</v>
       </c>
       <c r="H9" s="2">
@@ -1610,7 +1618,7 @@
       <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>10</v>
       </c>
       <c r="H10" s="2">
@@ -1636,10 +1644,10 @@
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>10</v>
       </c>
       <c r="H11" s="2">
@@ -1668,7 +1676,7 @@
       <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>10</v>
       </c>
       <c r="H12" s="2">
@@ -1697,7 +1705,7 @@
       <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12">
         <v>10</v>
       </c>
       <c r="H13" s="2">
@@ -1726,7 +1734,7 @@
       <c r="F14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <v>10</v>
       </c>
       <c r="H14" s="2">
@@ -1742,7 +1750,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="3:12">
+    <row r="15" ht="14.4" spans="2:12">
+      <c r="B15" s="6"/>
       <c r="C15" s="4">
         <v>110</v>
       </c>
@@ -1755,7 +1764,7 @@
       <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>10</v>
       </c>
       <c r="H15" s="2">
@@ -1784,7 +1793,7 @@
       <c r="F16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>10</v>
       </c>
       <c r="H16" s="2">
@@ -1801,19 +1810,19 @@
       </c>
     </row>
     <row r="17" ht="14.4" spans="3:12">
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>112</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>2</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>10</v>
       </c>
       <c r="H17" s="2">
@@ -1830,19 +1839,19 @@
       </c>
     </row>
     <row r="18" ht="14.4" spans="3:12">
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>113</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>10</v>
       </c>
       <c r="H18" s="2">
@@ -1859,19 +1868,19 @@
       </c>
     </row>
     <row r="19" ht="14.4" spans="3:12">
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>114</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="12">
         <v>2</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>10</v>
       </c>
       <c r="H19" s="2">
@@ -1888,19 +1897,19 @@
       </c>
     </row>
     <row r="20" ht="14.4" spans="3:12">
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>115</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>10</v>
       </c>
       <c r="H20" s="2">
@@ -1916,20 +1925,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:13">
-      <c r="C21" s="6">
+    <row r="21" ht="16.8" spans="2:13">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7">
         <v>116</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>2</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="12">
         <v>10</v>
       </c>
       <c r="H21" s="2">
@@ -1941,30 +1951,31 @@
       <c r="J21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="10">
         <v>124</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="3:12">
-      <c r="C22" s="6">
+    <row r="22" ht="14.4" spans="2:12">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7">
         <v>117</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>2</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="12">
         <v>10</v>
       </c>
       <c r="H22" s="2">
@@ -1981,19 +1992,19 @@
       </c>
     </row>
     <row r="23" ht="16.8" spans="3:12">
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>118</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>2</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="12">
         <v>10</v>
       </c>
       <c r="H23" s="2">
@@ -2005,25 +2016,25 @@
       <c r="J23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.4" spans="3:12">
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>119</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>2</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <v>10</v>
       </c>
       <c r="H24" s="2">
@@ -2040,19 +2051,19 @@
       </c>
     </row>
     <row r="25" ht="14.4" spans="3:12">
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>120</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>2</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <v>10</v>
       </c>
       <c r="H25" s="2">
@@ -2069,19 +2080,19 @@
       </c>
     </row>
     <row r="26" ht="14.4" spans="3:12">
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>121</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <v>2</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="12">
         <v>10</v>
       </c>
       <c r="H26" s="2">
@@ -2098,19 +2109,19 @@
       </c>
     </row>
     <row r="27" ht="14.4" spans="3:12">
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>122</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="12">
         <v>10</v>
       </c>
       <c r="H27" s="2">
@@ -2127,19 +2138,19 @@
       </c>
     </row>
     <row r="28" ht="14.4" spans="3:12">
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>123</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>2</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="12">
         <v>10</v>
       </c>
       <c r="H28" s="2">
@@ -2156,19 +2167,19 @@
       </c>
     </row>
     <row r="29" ht="14.4" spans="3:14">
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>124</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>2</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="12">
         <v>10</v>
       </c>
       <c r="H29" s="2">
@@ -2188,19 +2199,19 @@
       </c>
     </row>
     <row r="30" ht="14.4" spans="3:13">
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>125</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>2</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="12">
         <v>10</v>
       </c>
       <c r="H30" s="2">
@@ -2219,19 +2230,19 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" ht="14.4" spans="3:12">
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>126</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>2</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="12">
         <v>10</v>
       </c>
       <c r="H31" s="2">
@@ -2248,7 +2259,7 @@
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22400"/>
+    <workbookView windowHeight="22320"/>
   </bookViews>
   <sheets>
     <sheet name="BuffConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="119">
   <si>
     <t>c</t>
   </si>
@@ -31,7 +31,46 @@
     <t>描述</t>
   </si>
   <si>
-    <t>数值</t>
+    <t>是否可覆盖</t>
+  </si>
+  <si>
+    <t>怒气获取量降低百分比</t>
+  </si>
+  <si>
+    <t>防御力提升百分比</t>
+  </si>
+  <si>
+    <t>防御力降低百分比</t>
+  </si>
+  <si>
+    <t>攻击力提升百分比</t>
+  </si>
+  <si>
+    <t>攻击力降低百分比</t>
+  </si>
+  <si>
+    <t>生命值护盾</t>
+  </si>
+  <si>
+    <t>复活时的血量比率</t>
+  </si>
+  <si>
+    <t>最终伤害降低百分比</t>
+  </si>
+  <si>
+    <t>所有伤害提升倍数</t>
+  </si>
+  <si>
+    <t>治疗效果降低百分比</t>
+  </si>
+  <si>
+    <t>扣除血量百分比</t>
+  </si>
+  <si>
+    <t>扣除攻击者攻击力的百分比</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
   </si>
   <si>
     <t>是否禁锢</t>
@@ -43,6 +82,9 @@
     <t>合图地址</t>
   </si>
   <si>
+    <t>持续几个回合激活新buff</t>
+  </si>
+  <si>
     <t>结束时激活的buff</t>
   </si>
   <si>
@@ -55,6 +97,12 @@
     <t>动画状态</t>
   </si>
   <si>
+    <t>受击特效地址</t>
+  </si>
+  <si>
+    <t>受击动作</t>
+  </si>
+  <si>
     <t>#增益类型1，增益。2减益3,血量护盾</t>
   </si>
   <si>
@@ -70,7 +118,46 @@
     <t>Des</t>
   </si>
   <si>
-    <t>value</t>
+    <t>IsCanCover</t>
+  </si>
+  <si>
+    <t>GetAngryReduceRate</t>
+  </si>
+  <si>
+    <t>DefenceMuilRate</t>
+  </si>
+  <si>
+    <t>DefenceReduceRate</t>
+  </si>
+  <si>
+    <t>AttackMultRate</t>
+  </si>
+  <si>
+    <t>AttackReduceRate</t>
+  </si>
+  <si>
+    <t>CastHealthShieldRate</t>
+  </si>
+  <si>
+    <t>ResurrectionHealthRate</t>
+  </si>
+  <si>
+    <t>EndDamageReduceRate</t>
+  </si>
+  <si>
+    <t>AllDamageMultRate</t>
+  </si>
+  <si>
+    <t>CareHealthReduceRate</t>
+  </si>
+  <si>
+    <t>DeductionSelfTotalHealthRate</t>
+  </si>
+  <si>
+    <t>DeductionAttackAttackHealthRate</t>
+  </si>
+  <si>
+    <t>DamageAddition</t>
   </si>
   <si>
     <t>IsCanAttack</t>
@@ -82,7 +169,10 @@
     <t>SpriteAtlas</t>
   </si>
   <si>
-    <t>RoundOverActiveBuff</t>
+    <t>ActiveBuffRoundCount</t>
+  </si>
+  <si>
+    <t>RoundFullActiveBuff</t>
   </si>
   <si>
     <t>MaxOverlabCount</t>
@@ -94,6 +184,15 @@
     <t>AnimationState</t>
   </si>
   <si>
+    <t>BeAttackEffect</t>
+  </si>
+  <si>
+    <t>BeAttackAnim</t>
+  </si>
+  <si>
+    <t>#是否可覆盖，1.可覆盖。2不可覆盖</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -112,10 +211,16 @@
     <t>Assets/Res/UI/CommonUIAtlas.spriteatlas</t>
   </si>
   <si>
+    <t>simayi_jiutianshenlei_shouji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeAttack </t>
+  </si>
+  <si>
     <t>根性</t>
   </si>
   <si>
-    <t>生命值若大于60%，则下次遭受的伤害将不会使该英雄死亡。</t>
+    <t>生命值若大于60%，则下次遭受的伤害将不会使该英雄死亡。（最低生命值不小于1）</t>
   </si>
   <si>
     <t>shuxingicon02</t>
@@ -136,13 +241,13 @@
     <t>振奋</t>
   </si>
   <si>
-    <t>攻击力提升</t>
+    <t>攻击力提升30%</t>
   </si>
   <si>
     <t>坚守</t>
   </si>
   <si>
-    <t>防御力提升</t>
+    <t>防御力提升30%</t>
   </si>
   <si>
     <t>无敌</t>
@@ -154,7 +259,7 @@
     <t>复苏</t>
   </si>
   <si>
-    <t>附有该状态的英雄死亡时将复活，提供30%的血量与50%的怒气值。</t>
+    <t>附有该状态的英雄死亡时将复活，提供30%的血量。</t>
   </si>
   <si>
     <t>隐身</t>
@@ -166,7 +271,7 @@
     <t>护盾</t>
   </si>
   <si>
-    <t>获得施法者生命值30%的护盾。</t>
+    <t>该状态下的英雄受到伤害将优先扣除护盾。（真实伤害除外）</t>
   </si>
   <si>
     <t>牺牲</t>
@@ -202,10 +307,27 @@
     <t>感电</t>
   </si>
   <si>
-    <t>感电后目标所受伤害增加10%（不可叠加）。若持续【感电】3回合，则第三回合造成【晕眩】，效果持续1回合。（恢复后重置）</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Effect/SKillEffect/simayi_jiutianshenlei_shouji.prefab</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>感电后目标所受伤害增加10%（不可叠加）。</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若持续【感电】3回合，则第三回合造成【晕眩】，效果持续1回合。（恢复后重置）</t>
+    </r>
   </si>
   <si>
     <t>眩目</t>
@@ -217,7 +339,27 @@
     <t>冻伤</t>
   </si>
   <si>
-    <t>冻伤后目标所受伤害增加3%（可叠加，最多3次）。若持续【冻伤】3回合，则第三回合造成【冰冻】，效果持续1回合。（恢复后重置）</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冻伤后目标所受伤害增加3%（可叠加，最多3次）。</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若持续【冻伤】3回合，则第三回合造成【冰冻】，效果持续1回合。（恢复后重置）</t>
+    </r>
   </si>
   <si>
     <t>中毒</t>
@@ -276,12 +418,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -325,14 +473,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,34 +494,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +513,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,8 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +552,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,26 +595,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -493,7 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,31 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +721,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,49 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,37 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,6 +890,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -749,21 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -775,152 +931,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -942,23 +1098,27 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A2:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6:AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1320,34 +1480,34 @@
     <col min="1" max="1" width="43.9038461538462" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.5192307692308" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.8173076923077" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6346153846154" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.52884615384615" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.76923076923077" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.3461538461538" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.7307692307692" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.3653846153846" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.0865384615385" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5384615384615" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.0865384615385" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35.1826923076923" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6346153846154" style="1" customWidth="1"/>
-    <col min="19" max="19" width="34.7307692307692" style="1" customWidth="1"/>
-    <col min="20" max="20" width="33.0865384615385" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.8173076923077" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="105.442307692308" style="2" customWidth="1"/>
+    <col min="7" max="20" width="19.3942307692308" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.52884615384615" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.0288461538462" style="2" customWidth="1"/>
+    <col min="23" max="23" width="37.8269230769231" style="2" customWidth="1"/>
+    <col min="24" max="25" width="18.7307692307692" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15.3653846153846" style="2" customWidth="1"/>
+    <col min="27" max="27" width="26.9230769230769" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.5384615384615" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.0865384615385" style="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.1826923076923" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6346153846154" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.7307692307692" style="1" customWidth="1"/>
+    <col min="34" max="34" width="33.0865384615385" style="1" customWidth="1"/>
+    <col min="35" max="35" width="26.8173076923077" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="18:20">
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
+    <row r="2" spans="32:34">
+      <c r="AF2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:22">
+    <row r="3" spans="3:36">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1384,882 +1544,2279 @@
       <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" ht="24" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="3:22">
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
     </row>
-    <row r="6" ht="14.4" spans="3:12">
+    <row r="6" ht="16.8" spans="3:30">
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
         <v>50</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="2:12">
+    <row r="7" ht="16.8" spans="2:30">
       <c r="B7" s="6"/>
       <c r="C7" s="4">
         <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="12">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
+      <c r="F7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="3:12">
+    <row r="8" ht="16.8" spans="3:30">
       <c r="C8" s="4">
         <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
+      <c r="F8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="3:12">
+    <row r="9" ht="16.8" spans="3:30">
       <c r="C9" s="4">
         <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="12">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
+      <c r="F9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="3:12">
+    <row r="10" ht="16.8" spans="3:30">
       <c r="C10" s="4">
         <v>105</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="12">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
+      <c r="F10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>30</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="3:12">
+    <row r="11" ht="16.8" spans="3:30">
       <c r="C11" s="4">
         <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="12">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>30</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="3:12">
+    <row r="12" ht="16.8" spans="3:30">
       <c r="C12" s="4">
         <v>107</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="12">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
+      <c r="F12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="3:12">
+    <row r="13" ht="16.8" spans="3:30">
       <c r="C13" s="4">
         <v>108</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="12">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
+      <c r="F13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>30</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="3:12">
+    <row r="14" ht="16.8" spans="3:30">
       <c r="C14" s="4">
         <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="12">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
+      <c r="F14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="2:12">
+    <row r="15" ht="16.8" spans="2:30">
       <c r="B15" s="6"/>
       <c r="C15" s="4">
         <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="12">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
+      <c r="F15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="3:12">
+    <row r="16" ht="16.8" spans="3:30">
       <c r="C16" s="4">
         <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="12">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
+      <c r="F16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="3:12">
+    <row r="17" ht="16.8" spans="3:30">
       <c r="C17" s="7">
         <v>112</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="12">
+        <v>88</v>
+      </c>
+      <c r="E17" s="14">
         <v>2</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="12">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
+      <c r="F17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>50</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="3:12">
+    <row r="18" ht="16.8" spans="3:30">
       <c r="C18" s="7">
         <v>113</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="12">
+        <v>90</v>
+      </c>
+      <c r="E18" s="14">
         <v>2</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="12">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
+      <c r="F18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>50</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="3:12">
+    <row r="19" ht="16.8" spans="3:30">
       <c r="C19" s="7">
         <v>114</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="12">
+        <v>92</v>
+      </c>
+      <c r="E19" s="14">
         <v>2</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="12">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
+      <c r="F19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>30</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="3:12">
+    <row r="20" ht="16.8" spans="2:30">
+      <c r="B20" s="9"/>
       <c r="C20" s="7">
         <v>115</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="12">
+        <v>94</v>
+      </c>
+      <c r="E20" s="14">
         <v>2</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="12">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
+      <c r="F20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>30</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="2:13">
+    <row r="21" ht="16.8" spans="2:30">
       <c r="B21" s="6"/>
       <c r="C21" s="7">
         <v>116</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="12">
+        <v>96</v>
+      </c>
+      <c r="E21" s="14">
         <v>2</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="F21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="14">
         <v>10</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X21" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="11">
         <v>124</v>
       </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>63</v>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="2:12">
+    <row r="22" ht="16.8" spans="2:30">
       <c r="B22" s="6"/>
       <c r="C22" s="7">
         <v>117</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="12">
-        <v>10</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
+      <c r="X22" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>125</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:12">
+    <row r="23" ht="16.8" spans="3:30">
       <c r="C23" s="7">
         <v>118</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="14">
+        <v>2</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>3</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="12">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="24" ht="14.4" spans="3:12">
+    <row r="24" ht="16.8" spans="3:30">
       <c r="C24" s="7">
         <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="12">
+        <v>102</v>
+      </c>
+      <c r="E24" s="14">
         <v>2</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>5</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="12">
-        <v>10</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="W24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" s="2">
         <v>3</v>
       </c>
+      <c r="AA24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="25" ht="14.4" spans="3:12">
+    <row r="25" ht="16.8" spans="3:30">
       <c r="C25" s="7">
         <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="12">
+        <v>104</v>
+      </c>
+      <c r="E25" s="14">
         <v>2</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="12">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="F25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="14">
+        <v>2</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
         <v>3</v>
       </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="26" ht="14.4" spans="3:12">
+    <row r="26" ht="16.8" spans="3:30">
       <c r="C26" s="7">
         <v>121</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="12">
+        <v>106</v>
+      </c>
+      <c r="E26" s="14">
         <v>2</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="12">
-        <v>10</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
+      <c r="F26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>50</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <v>3</v>
+      </c>
+      <c r="T26" s="14">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="27" ht="14.4" spans="3:12">
+    <row r="27" ht="16.8" spans="3:30">
       <c r="C27" s="7">
         <v>122</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="12">
+        <v>108</v>
+      </c>
+      <c r="E27" s="14">
         <v>2</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="12">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
+      <c r="F27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="3:12">
+    <row r="28" ht="16.8" spans="3:30">
       <c r="C28" s="7">
         <v>123</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="12">
+        <v>110</v>
+      </c>
+      <c r="E28" s="14">
         <v>2</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="12">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
+      <c r="F28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="3:14">
+    <row r="29" ht="16.8" spans="3:30">
       <c r="C29" s="7">
         <v>124</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="12">
+        <v>112</v>
+      </c>
+      <c r="E29" s="14">
         <v>2</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="12">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>80</v>
+      <c r="F29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="14">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="3:13">
+    <row r="30" ht="16.8" spans="3:30">
       <c r="C30" s="7">
         <v>125</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="14">
         <v>2</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="12">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1"/>
+      <c r="F30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>20</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="31" ht="14.4" spans="3:12">
+    <row r="31" ht="16.8" spans="3:30">
       <c r="C31" s="7">
         <v>126</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="12">
+        <v>117</v>
+      </c>
+      <c r="E31" s="14">
         <v>2</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="12">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
+      <c r="F31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC31" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="138">
   <si>
     <t>c</t>
   </si>
@@ -31,6 +31,24 @@
     <t>描述</t>
   </si>
   <si>
+    <t>是否为炫目buff</t>
+  </si>
+  <si>
+    <t>是否为隐身状态</t>
+  </si>
+  <si>
+    <t>复苏之后的血量</t>
+  </si>
+  <si>
+    <t>是否可以复苏</t>
+  </si>
+  <si>
+    <t>是否无敌</t>
+  </si>
+  <si>
+    <t>是否免疫</t>
+  </si>
+  <si>
     <t>是否不死</t>
   </si>
   <si>
@@ -61,9 +79,6 @@
     <t>攻击力降低百分比</t>
   </si>
   <si>
-    <t>生命值护盾</t>
-  </si>
-  <si>
     <t>复活时的血量比率</t>
   </si>
   <si>
@@ -97,12 +112,6 @@
     <t>合图地址</t>
   </si>
   <si>
-    <t>持续几个回合激活新buff</t>
-  </si>
-  <si>
-    <t>结束时激活的buff</t>
-  </si>
-  <si>
     <t>叠加数量</t>
   </si>
   <si>
@@ -133,6 +142,24 @@
     <t>Des</t>
   </si>
   <si>
+    <t>IsDazzling</t>
+  </si>
+  <si>
+    <t>IsInvisible</t>
+  </si>
+  <si>
+    <t>RecoveryHealthAddition</t>
+  </si>
+  <si>
+    <t>IsRecovery</t>
+  </si>
+  <si>
+    <t>IsInvincible</t>
+  </si>
+  <si>
+    <t>IsImmune</t>
+  </si>
+  <si>
     <t>IsAvoidDeath</t>
   </si>
   <si>
@@ -151,7 +178,7 @@
     <t>GetAngryReduceRate</t>
   </si>
   <si>
-    <t>DefenceMuilRate</t>
+    <t>DefenceMultRate</t>
   </si>
   <si>
     <t>DefenceReduceRate</t>
@@ -163,9 +190,6 @@
     <t>AttackReduceRate</t>
   </si>
   <si>
-    <t>CastHealthShieldRate</t>
-  </si>
-  <si>
     <t>ResurrectionHealthRate</t>
   </si>
   <si>
@@ -199,12 +223,6 @@
     <t>SpriteAtlas</t>
   </si>
   <si>
-    <t>ActiveBuffRoundCount</t>
-  </si>
-  <si>
-    <t>RoundFullActiveBuff</t>
-  </si>
-  <si>
     <t>MaxOverlabCount</t>
   </si>
   <si>
@@ -271,15 +289,6 @@
     <t>该英雄不会受到负面状态的影响。</t>
   </si>
   <si>
-    <t>#挑衅，1挑衅，0.不挑衅</t>
-  </si>
-  <si>
-    <t>净化</t>
-  </si>
-  <si>
-    <t>清除英雄的负面状态。</t>
-  </si>
-  <si>
     <t>#是够不死1.免死。0.不免死</t>
   </si>
   <si>
@@ -289,22 +298,34 @@
     <t>攻击力提升30%</t>
   </si>
   <si>
+    <t>#是否免疫，1免疫0.不免疫</t>
+  </si>
+  <si>
     <t>坚守</t>
   </si>
   <si>
     <t>防御力提升30%</t>
   </si>
   <si>
+    <t>#是否净化，1净化0不净化</t>
+  </si>
+  <si>
     <t>无敌</t>
   </si>
   <si>
     <t>受到的所有伤害降至1（附加效果除外）</t>
   </si>
   <si>
+    <t>#是否可以复苏1.可以复苏2.不可以复苏</t>
+  </si>
+  <si>
     <t>复苏</t>
   </si>
   <si>
     <t>附有该状态的英雄死亡时将复活，提供30%的血量。</t>
+  </si>
+  <si>
+    <t>#炫目1炫目0不炫目</t>
   </si>
   <si>
     <t>隐身</t>
@@ -454,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -516,18 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,16 +553,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -571,31 +593,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,14 +626,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -626,7 +633,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,19 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,19 +718,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,7 +778,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,97 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,6 +906,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,8 +941,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -924,17 +965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -949,154 +979,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,14 +1162,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1498,10 +1519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AO31"/>
+  <dimension ref="A2:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1510,33 +1531,32 @@
     <col min="2" max="2" width="32.5192307692308" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.6346153846154" style="2" customWidth="1"/>
     <col min="6" max="6" width="105.442307692308" style="2" customWidth="1"/>
-    <col min="7" max="24" width="19.3942307692308" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.3365384615385" style="2" customWidth="1"/>
-    <col min="26" max="27" width="20.0288461538462" style="2" customWidth="1"/>
-    <col min="28" max="28" width="37.8269230769231" style="2" customWidth="1"/>
-    <col min="29" max="30" width="18.7307692307692" style="2" customWidth="1"/>
-    <col min="31" max="31" width="15.3653846153846" style="2" customWidth="1"/>
-    <col min="32" max="32" width="26.9230769230769" style="2" customWidth="1"/>
-    <col min="33" max="33" width="17.5384615384615" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.0865384615385" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16" style="1" customWidth="1"/>
-    <col min="36" max="36" width="35.1826923076923" style="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6346153846154" style="1" customWidth="1"/>
-    <col min="38" max="38" width="34.7307692307692" style="1" customWidth="1"/>
-    <col min="39" max="39" width="33.0865384615385" style="1" customWidth="1"/>
-    <col min="40" max="40" width="26.8173076923077" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="1"/>
+    <col min="7" max="29" width="19.3942307692308" style="2" customWidth="1"/>
+    <col min="30" max="30" width="12.3365384615385" style="2" customWidth="1"/>
+    <col min="31" max="32" width="20.0288461538462" style="2" customWidth="1"/>
+    <col min="33" max="33" width="37.8269230769231" style="2" customWidth="1"/>
+    <col min="34" max="34" width="15.3653846153846" style="2" customWidth="1"/>
+    <col min="35" max="35" width="26.9230769230769" style="2" customWidth="1"/>
+    <col min="36" max="36" width="17.5384615384615" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.0865384615385" style="1" customWidth="1"/>
+    <col min="38" max="38" width="16" style="1" customWidth="1"/>
+    <col min="39" max="39" width="35.1826923076923" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.6346153846154" style="1" customWidth="1"/>
+    <col min="41" max="41" width="34.7307692307692" style="1" customWidth="1"/>
+    <col min="42" max="42" width="33.0865384615385" style="1" customWidth="1"/>
+    <col min="43" max="43" width="26.8173076923077" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="37:39">
-      <c r="AK2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+    <row r="2" spans="40:42">
+      <c r="AN2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:41">
+    <row r="3" spans="3:44">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1636,249 +1656,276 @@
       <c r="AI3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
+      <c r="AJ3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
     </row>
-    <row r="4" ht="24" spans="1:41">
+    <row r="4" ht="24" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="S4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="T4" s="11" t="s">
         <v>55</v>
       </c>
+      <c r="U4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X4" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
     </row>
-    <row r="6" ht="16.8" spans="1:35">
+    <row r="6" ht="16.8" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
@@ -1890,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -1908,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="13">
         <v>0</v>
@@ -1917,94 +1964,109 @@
         <v>0</v>
       </c>
       <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
         <v>50</v>
       </c>
-      <c r="T6" s="13">
-        <v>0</v>
-      </c>
-      <c r="U6" s="13">
-        <v>0</v>
-      </c>
-      <c r="V6" s="13">
-        <v>0</v>
-      </c>
-      <c r="W6" s="13">
-        <v>0</v>
-      </c>
-      <c r="X6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>75</v>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
       </c>
       <c r="AE6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:35">
+    <row r="7" ht="16.8" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5">
         <v>102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
         <v>60</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
       <c r="O7" s="13">
         <v>0</v>
       </c>
       <c r="P7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="13">
         <v>0</v>
@@ -2030,788 +2092,940 @@
       <c r="X7" s="13">
         <v>0</v>
       </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>77</v>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="1:35">
+    <row r="8" ht="16.8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="5">
         <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="13">
-        <v>0</v>
-      </c>
-      <c r="X8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2" t="s">
+    </row>
+    <row r="9" ht="16.8" spans="1:38">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>30</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>77</v>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="1:35">
-      <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="5">
+    <row r="10" ht="16.8" spans="1:38">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5">
+        <v>106</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>30</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:38">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="1:38">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <v>108</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>30</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>30</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="1:38">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5">
+        <v>109</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13">
-        <v>0</v>
-      </c>
-      <c r="U9" s="13">
-        <v>0</v>
-      </c>
-      <c r="V9" s="13">
-        <v>0</v>
-      </c>
-      <c r="W9" s="13">
-        <v>0</v>
-      </c>
-      <c r="X9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>77</v>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:35">
-      <c r="A10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="5">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>30</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0</v>
-      </c>
-      <c r="X10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2" t="s">
+    <row r="14" ht="16.8" spans="2:38">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5">
+        <v>110</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>77</v>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="3:35">
-      <c r="C11" s="5">
-        <v>106</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>30</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0</v>
-      </c>
-      <c r="X11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="s">
+    <row r="15" ht="17" customHeight="1" spans="2:38">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7">
+        <v>112</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>50</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI11" s="1" t="s">
-        <v>77</v>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:35">
-      <c r="C12" s="5">
-        <v>107</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>1</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13">
-        <v>0</v>
-      </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI12" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" ht="16.8" spans="3:35">
-      <c r="C13" s="5">
-        <v>108</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13">
-        <v>30</v>
-      </c>
-      <c r="S13" s="13">
-        <v>0</v>
-      </c>
-      <c r="T13" s="13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" ht="16.8" spans="3:35">
-      <c r="C14" s="5">
-        <v>109</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="13">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0</v>
-      </c>
-      <c r="X14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" ht="16.8" spans="3:35">
-      <c r="C15" s="5">
+    <row r="16" ht="16.8" spans="3:38">
+      <c r="C16" s="7">
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
-        <v>0</v>
-      </c>
-      <c r="T15" s="13">
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <v>0</v>
-      </c>
-      <c r="W15" s="13">
-        <v>0</v>
-      </c>
-      <c r="X15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" ht="16.8" spans="3:35">
-      <c r="C16" s="7">
-        <v>112</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="E16" s="13">
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -2823,87 +3037,103 @@
         <v>0</v>
       </c>
       <c r="J16" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="13">
         <v>0</v>
       </c>
       <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
         <v>50</v>
       </c>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13">
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13">
-        <v>0</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <v>0</v>
-      </c>
-      <c r="W16" s="13">
-        <v>0</v>
-      </c>
-      <c r="X16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI16" s="1" t="s">
-        <v>77</v>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:35">
+    <row r="17" ht="16.8" spans="2:38">
+      <c r="B17" s="4"/>
       <c r="C17" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E17" s="13">
         <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
@@ -2915,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="13">
         <v>0</v>
@@ -2933,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="13">
         <v>0</v>
@@ -2948,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="U17" s="13">
-        <v>50</v>
-      </c>
-      <c r="V17" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>30</v>
       </c>
       <c r="W17" s="13">
         <v>0</v>
@@ -2959,44 +3189,59 @@
       <c r="X17" s="13">
         <v>0</v>
       </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2" t="s">
+      <c r="Y17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>77</v>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="2:35">
+    <row r="18" ht="16.8" spans="2:38">
       <c r="B18" s="4"/>
       <c r="C18" s="7">
+        <v>115</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E18" s="13">
         <v>2</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G18" s="13">
         <v>0</v>
@@ -3008,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="13">
         <v>0</v>
@@ -3026,20 +3271,20 @@
         <v>0</v>
       </c>
       <c r="P18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
         <v>30</v>
       </c>
-      <c r="Q18" s="13">
-        <v>0</v>
-      </c>
-      <c r="R18" s="13">
-        <v>0</v>
-      </c>
-      <c r="S18" s="13">
-        <v>0</v>
-      </c>
-      <c r="T18" s="13">
-        <v>0</v>
-      </c>
       <c r="U18" s="13">
         <v>0</v>
       </c>
@@ -3052,44 +3297,59 @@
       <c r="X18" s="13">
         <v>0</v>
       </c>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2" t="s">
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>77</v>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="2:35">
+    <row r="19" ht="16.8" spans="2:38">
       <c r="B19" s="4"/>
       <c r="C19" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E19" s="13">
         <v>2</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -3101,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -3113,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O19" s="13">
         <v>0</v>
       </c>
       <c r="P19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="13">
         <v>0</v>
@@ -3145,47 +3405,62 @@
       <c r="X19" s="13">
         <v>0</v>
       </c>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2" t="s">
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>77</v>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="20" ht="16.8" spans="2:35">
+    <row r="20" ht="16.8" spans="2:38">
       <c r="B20" s="4"/>
       <c r="C20" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E20" s="13">
         <v>2</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -3194,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="13">
         <v>0</v>
@@ -3212,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="13">
         <v>0</v>
@@ -3236,52 +3511,61 @@
         <v>0</v>
       </c>
       <c r="X20" s="13">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC20" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="10">
-        <v>124</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>77</v>
+      <c r="AH20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="2:35">
+    <row r="21" ht="16.8" spans="2:38">
       <c r="B21" s="4"/>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E21" s="13">
         <v>2</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
@@ -3293,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
         <v>0</v>
@@ -3311,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="13">
         <v>0</v>
@@ -3337,50 +3621,59 @@
       <c r="X21" s="13">
         <v>0</v>
       </c>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2" t="s">
+      <c r="Y21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC21" s="10">
+      <c r="AH21" s="2">
         <v>3</v>
       </c>
-      <c r="AD21" s="10">
-        <v>125</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI21" s="1" t="s">
-        <v>77</v>
+      <c r="AI21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="22" ht="16.8" spans="2:35">
+    <row r="22" ht="16.8" spans="2:38">
       <c r="B22" s="4"/>
       <c r="C22" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E22" s="13">
         <v>2</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -3392,26 +3685,26 @@
         <v>0</v>
       </c>
       <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
         <v>2</v>
       </c>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13">
-        <v>0</v>
-      </c>
-      <c r="N22" s="13">
-        <v>0</v>
-      </c>
-      <c r="O22" s="13">
-        <v>0</v>
-      </c>
-      <c r="P22" s="13">
-        <v>0</v>
-      </c>
       <c r="Q22" s="13">
         <v>0</v>
       </c>
@@ -3434,48 +3727,61 @@
         <v>0</v>
       </c>
       <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH22" s="2">
         <v>3</v>
       </c>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>77</v>
+      <c r="AI22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="2:35">
+    <row r="23" ht="16.8" spans="2:38">
       <c r="B23" s="4"/>
       <c r="C23" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E23" s="13">
         <v>2</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -3487,26 +3793,26 @@
         <v>0</v>
       </c>
       <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
         <v>2</v>
       </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-      <c r="N23" s="13">
-        <v>0</v>
-      </c>
-      <c r="O23" s="13">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0</v>
-      </c>
       <c r="Q23" s="13">
         <v>0</v>
       </c>
@@ -3523,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W23" s="13">
         <v>0</v>
@@ -3531,44 +3837,58 @@
       <c r="X23" s="13">
         <v>0</v>
       </c>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2" t="s">
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE23" s="2">
+      <c r="AH23" s="2">
         <v>3</v>
       </c>
-      <c r="AF23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>77</v>
+      <c r="AI23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="24" ht="16.8" spans="2:35">
-      <c r="B24" s="4"/>
+    <row r="24" ht="16.8" spans="3:38">
       <c r="C24" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E24" s="13">
         <v>2</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G24" s="13">
         <v>0</v>
@@ -3580,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="13">
         <v>0</v>
@@ -3598,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="13">
         <v>0</v>
@@ -3619,48 +3939,64 @@
         <v>0</v>
       </c>
       <c r="W24" s="13">
+        <v>0</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>50</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
         <v>3</v>
       </c>
-      <c r="X24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AC24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI24" s="1" t="s">
-        <v>77</v>
+      <c r="AH24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="25" ht="16.8" spans="3:35">
+    <row r="25" ht="16.8" spans="2:38">
+      <c r="B25" s="4"/>
       <c r="C25" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="E25" s="13">
         <v>2</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
@@ -3672,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="13">
         <v>0</v>
@@ -3686,11 +4022,11 @@
       <c r="N25" s="13">
         <v>0</v>
       </c>
-      <c r="O25" s="13">
-        <v>0</v>
+      <c r="O25" s="14">
+        <v>1</v>
       </c>
       <c r="P25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="13">
         <v>0</v>
@@ -3705,55 +4041,70 @@
         <v>0</v>
       </c>
       <c r="U25" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V25" s="13">
         <v>0</v>
       </c>
       <c r="W25" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X25" s="13">
         <v>0</v>
       </c>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2" t="s">
+      <c r="Y25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>77</v>
+      <c r="AH25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="26" ht="16.8" spans="2:35">
+    <row r="26" ht="16.8" spans="2:38">
       <c r="B26" s="4"/>
       <c r="C26" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E26" s="13">
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -3762,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="13">
         <v>0</v>
@@ -3783,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="13">
         <v>0</v>
@@ -3809,44 +4160,59 @@
       <c r="X26" s="13">
         <v>0</v>
       </c>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2" t="s">
+      <c r="Y26" s="14">
+        <v>200</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>77</v>
+      <c r="AH26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="27" ht="16.8" spans="2:35">
+    <row r="27" ht="16.8" spans="2:38">
       <c r="B27" s="4"/>
       <c r="C27" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E27" s="13">
         <v>2</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -3858,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="13">
         <v>0</v>
@@ -3876,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="13">
         <v>0</v>
@@ -3888,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U27" s="13">
         <v>0</v>
@@ -3902,44 +4268,62 @@
       <c r="X27" s="13">
         <v>0</v>
       </c>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2" t="s">
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH27" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>77</v>
+      <c r="AH27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL27" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="28" ht="16.8" spans="2:35">
+    <row r="28" ht="16.8" spans="2:38">
       <c r="B28" s="4"/>
       <c r="C28" s="7">
-        <v>124</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="E28" s="13">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>125</v>
+      <c r="F28" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
@@ -3951,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="13">
         <v>0</v>
@@ -3969,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="13">
         <v>0</v>
@@ -3995,47 +4379,59 @@
       <c r="X28" s="13">
         <v>0</v>
       </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2" t="s">
+      <c r="Y28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>77</v>
+      <c r="AH28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="29" ht="16.8" spans="2:35">
+    <row r="29" ht="16.8" spans="2:38">
       <c r="B29" s="4"/>
       <c r="C29" s="7">
-        <v>125</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E29" s="13">
         <v>2</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>128</v>
+      <c r="F29" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -4047,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="13">
         <v>0</v>
@@ -4065,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>1</v>
       </c>
       <c r="R29" s="13">
         <v>0</v>
@@ -4083,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13">
         <v>0</v>
@@ -4091,128 +4487,48 @@
       <c r="X29" s="13">
         <v>0</v>
       </c>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="2" t="s">
+      <c r="Y29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>77</v>
+      <c r="AH29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="30" ht="16.8" spans="2:35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="7">
-        <v>126</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="13">
-        <v>2</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="13">
-        <v>1</v>
-      </c>
-      <c r="K30" s="13">
-        <v>1</v>
-      </c>
-      <c r="L30" s="13">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13">
-        <v>0</v>
-      </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="13">
-        <v>0</v>
-      </c>
-      <c r="P30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>0</v>
-      </c>
-      <c r="R30" s="13">
-        <v>0</v>
-      </c>
-      <c r="S30" s="13">
-        <v>0</v>
-      </c>
-      <c r="T30" s="13">
-        <v>0</v>
-      </c>
-      <c r="U30" s="13">
-        <v>0</v>
-      </c>
-      <c r="V30" s="13">
-        <v>0</v>
-      </c>
-      <c r="W30" s="13">
-        <v>0</v>
-      </c>
-      <c r="X30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="10"/>
+    <row r="30" spans="3:3">
+      <c r="C30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -475,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -517,13 +517,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -537,19 +530,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,16 +560,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -586,14 +592,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -601,26 +599,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,15 +629,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,6 +706,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -724,7 +730,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,73 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,61 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,15 +879,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -906,11 +897,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,7 +936,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,10 +958,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -964,166 +979,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1522,7 +1522,7 @@
   <dimension ref="A2:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3014,7 +3014,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="3:38">
+    <row r="16" ht="16.8" spans="2:38">
+      <c r="B16" s="4"/>
       <c r="C16" s="7">
         <v>113</v>
       </c>
@@ -3877,7 +3878,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" ht="16.8" spans="3:38">
+    <row r="24" ht="16.8" spans="2:38">
+      <c r="B24" s="4"/>
       <c r="C24" s="7">
         <v>121</v>
       </c>

--- a/Excel/BuffConfig.xlsx
+++ b/Excel/BuffConfig.xlsx
@@ -475,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -517,6 +517,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -530,11 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,10 +552,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,13 +579,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,17 +609,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,32 +623,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,13 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,31 +784,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,31 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,37 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +879,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -897,21 +915,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -919,15 +922,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,11 +950,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,148 +982,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1522,7 +1522,7 @@
   <dimension ref="A2:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
